--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-Q.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-Q.RS0001.a205.xlsx
@@ -1048,7 +1048,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'P': 600.0 ton, 2.06 COP liquid-cooled, positive displacement compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'Q': 650.0 ton, 2.06 COP liquid-cooled, positive displacement compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>0b28764a-f376-4018-8fa9-6ddb944783b5</t>
+          <t>64e58cf4-ab9c-4592-9ef6-f8da9794b399</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-01T11:35Z</t>
+          <t>2022-12-20T09:13Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>Based on ASHRAE 90.1-2019 Addendum 'bd' curve set 'P' for Energy Cost Budget (ECB) Path B</t>
+          <t>Based on ASHRAE 90.1-2019 Addendum 'bd' curve set 'Q' for Energy Cost Budget (ECB) Path B</t>
         </is>
       </c>
       <c r="D13" s="4" t="n"/>
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1127059.380560262</v>
+        <v>1176816.64688336</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
@@ -2135,13 +2135,13 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B5" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,19 +2150,19 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>147359.5943820118</v>
+        <v>137783.8559604785</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>523756.3245919015</v>
+        <v>553665.0499090044</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>671115.9189739133</v>
+        <v>691448.9058694828</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.4156509236403</v>
+        <v>278.3823175346621</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>287.0266390934557</v>
+        <v>286.9728428466552</v>
       </c>
       <c r="K5" s="5" t="n">
         <v>15000</v>
@@ -2179,13 +2179,13 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,19 +2194,19 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>286412.3940622495</v>
+        <v>294205.7235769524</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1047512.649183803</v>
+        <v>1107330.099818009</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1333925.043246052</v>
+        <v>1401535.823394961</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.7924129583917</v>
+        <v>279.7257461804352</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.1118991591901</v>
+        <v>288.0460776541347</v>
       </c>
       <c r="K6" s="5" t="n">
         <v>15000</v>
@@ -2223,13 +2223,13 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B7" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,19 +2238,19 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>498749.6131640457</v>
+        <v>519441.0260559556</v>
       </c>
       <c r="G7" s="5" t="n">
-        <v>1571268.973775704</v>
+        <v>1660995.149727013</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>2070018.58693975</v>
+        <v>2180436.175782969</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.169174993143</v>
+        <v>281.0691748262084</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.3171525245431</v>
+        <v>289.2233180019134</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>15000</v>
@@ -2267,13 +2267,13 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B8" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,19 +2282,19 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>784371.2516874003</v>
+        <v>813489.7633974884</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>2095025.298367606</v>
+        <v>2214660.199636017</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2879396.550055007</v>
+        <v>3028149.963033506</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.5459370278944</v>
+        <v>282.4126034719816</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.6423991895148</v>
+        <v>290.5045638899915</v>
       </c>
       <c r="K8" s="5" t="n">
         <v>15000</v>
@@ -2311,13 +2311,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B9" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,19 +2326,19 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>174051.8961844658</v>
+        <v>172672.8235706559</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>514631.0345321484</v>
+        <v>559421.0186930601</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>688682.9307166141</v>
+        <v>732093.842263716</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.3916639046383</v>
+        <v>278.3962839812527</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.1335111265538</v>
+        <v>296.1123069846385</v>
       </c>
       <c r="K9" s="5" t="n">
         <v>15000</v>
@@ -2355,13 +2355,13 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B10" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,19 +2370,19 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>338292.328275791</v>
+        <v>368703.0867771039</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>1029262.069064297</v>
+        <v>1118842.03738612</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1367554.397340088</v>
+        <v>1487545.124163224</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.7444389203878</v>
+        <v>279.7536790736166</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.2490479828768</v>
+        <v>297.258191166592</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>15000</v>
@@ -2399,13 +2399,13 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B11" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,19 +2414,19 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>589091.7130745553</v>
+        <v>650971.3930001198</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1543893.103596445</v>
+        <v>1678263.05607918</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2132984.816671</v>
+        <v>2329234.4490793</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.0972139361372</v>
+        <v>281.1110741659805</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.5068204563044</v>
+        <v>298.5348830018555</v>
       </c>
       <c r="K11" s="5" t="n">
         <v>15000</v>
@@ -2443,13 +2443,13 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B12" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,19 +2458,19 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>926450.0505807583</v>
+        <v>1019477.742239704</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2058524.138128594</v>
+        <v>2237684.074772241</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2984974.188709352</v>
+        <v>3257161.817011944</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.4499889518867</v>
+        <v>282.4684692583443</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.9068285468365</v>
+        <v>299.9423824904291</v>
       </c>
       <c r="K12" s="5" t="n">
         <v>15000</v>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B13" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,19 +2502,19 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>195381.0761913738</v>
+        <v>194339.2471435776</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>490390.0049201319</v>
+        <v>539578.6852468461</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>685771.0811115056</v>
+        <v>733917.9323904237</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.3279431862697</v>
+        <v>278.3481379782587</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.2064330510465</v>
+        <v>305.1927365324979</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>15000</v>
@@ -2531,13 +2531,13 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B14" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,19 +2546,19 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>379748.3429640948</v>
+        <v>414966.7493822831</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>980780.0098402639</v>
+        <v>1079157.370493692</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1360528.352804359</v>
+        <v>1494124.119875975</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.6169974836506</v>
+        <v>279.6573870676285</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.3187836945576</v>
+        <v>306.3495502522557</v>
       </c>
       <c r="K14" s="5" t="n">
         <v>15000</v>
@@ -2575,13 +2575,13 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B15" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,19 +2590,19 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>661281.9245240664</v>
+        <v>732653.1634312622</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1471170.014760396</v>
+        <v>1618736.055740538</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>2132451.939284462</v>
+        <v>2351389.2191718</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.9060517810314</v>
+        <v>280.9666361569983</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.5913149205024</v>
+        <v>307.6540595349478</v>
       </c>
       <c r="K15" s="5" t="n">
         <v>15000</v>
@@ -2619,13 +2619,13 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B16" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,19 +2634,19 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1039981.820871289</v>
+        <v>1147398.489290516</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1961560.019680528</v>
+        <v>2158314.740987384</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3001541.840551816</v>
+        <v>3305713.230277901</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>282.1951060784122</v>
+        <v>282.2758852463681</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>309.0240267288812</v>
+        <v>309.1062643805744</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>15000</v>
@@ -2663,13 +2663,13 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B17" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,19 +2678,19 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>208372.5344184331</v>
+        <v>199321.912409661</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>451033.235755852</v>
+        <v>494138.0495703622</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>659405.770174285</v>
+        <v>693459.9619800232</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.2244887685344</v>
+        <v>278.2378795256799</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.2405561975469</v>
+        <v>314.2086553392734</v>
       </c>
       <c r="K17" s="5" t="n">
         <v>15000</v>
@@ -2707,13 +2707,13 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B18" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,19 +2722,19 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>404998.9190719914</v>
+        <v>425606.0846638439</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>902066.471511704</v>
+        <v>988276.0991407244</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1307065.390583695</v>
+        <v>1413882.183804568</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.4100886481799</v>
+        <v>279.4368701624709</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.3116860615632</v>
+        <v>315.3084720172084</v>
       </c>
       <c r="K18" s="5" t="n">
         <v>15000</v>
@@ -2751,13 +2751,13 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B19" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,19 +2766,19 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>705252.4904879318</v>
+        <v>751437.6628217433</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>1353099.707267556</v>
+        <v>1482414.148711087</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>2058352.197755488</v>
+        <v>2233851.81153283</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.5956885278254</v>
+        <v>280.6358607992619</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.5541994285297</v>
+        <v>316.560260544347</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>15000</v>
@@ -2795,13 +2795,13 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B20" s="5" t="n">
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,19 +2810,19 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1109133.248666254</v>
+        <v>1176816.64688336</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1804132.943023408</v>
+        <v>1976552.198281449</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>2913266.191689662</v>
+        <v>3153368.845164808</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.7812884074709</v>
+        <v>281.8348514360529</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.9680962984464</v>
+        <v>317.9640209206892</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>15000</v>
@@ -2839,13 +2839,13 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B21" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,19 +2854,19 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>143827.0678681632</v>
+        <v>129831.1214572004</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>558000.8372753584</v>
+        <v>575077.918876206</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>701827.9051435216</v>
+        <v>704909.0403334064</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.3977570496936</v>
+        <v>282.3262084676707</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>287.0769258063399</v>
+        <v>286.9931866728313</v>
       </c>
       <c r="K21" s="5" t="n">
         <v>15000</v>
@@ -2883,13 +2883,13 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B22" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,19 +2898,19 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>279546.472775191</v>
+        <v>277224.4887824825</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>1116001.674550717</v>
+        <v>1150155.837752412</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1395548.147325908</v>
+        <v>1427380.326534895</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>283.8677363216092</v>
+        <v>283.7246391575637</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.212798636182</v>
+        <v>288.0851393797731</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>15000</v>
@@ -2927,13 +2927,13 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B23" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,19 +2942,19 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>486793.5119026213</v>
+        <v>489459.4542561487</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1674002.511826075</v>
+        <v>1725233.756628618</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2160796.023728697</v>
+        <v>2214693.210884767</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.337715593525</v>
+        <v>285.1230698474566</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.4657882680914</v>
+        <v>289.2750945402004</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>15000</v>
@@ -2971,13 +2971,13 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B24" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,19 +2986,19 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>765568.1852504541</v>
+        <v>766536.0178781992</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>2232003.349101434</v>
+        <v>2300311.675504824</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2997571.534351888</v>
+        <v>3066847.693383023</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>286.8076948654407</v>
+        <v>286.5215005373495</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>290.8358947020683</v>
+        <v>290.5630521541131</v>
       </c>
       <c r="K24" s="5" t="n">
         <v>15000</v>
@@ -3015,13 +3015,13 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B25" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,19 +3030,19 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>171567.5557124133</v>
+        <v>165809.9303016526</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>553194.3299448234</v>
+        <v>588416.5780267912</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>724761.8856572367</v>
+        <v>754226.5083284439</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.3850949429829</v>
+        <v>282.35864440323</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.1927968764381</v>
+        <v>296.1458782718356</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>15000</v>
@@ -3059,13 +3059,13 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,19 +3074,19 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>333463.6918693844</v>
+        <v>354048.9571915763</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>1106388.659889647</v>
+        <v>1176833.156053582</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>1439852.351759031</v>
+        <v>1530882.113245159</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.842412108188</v>
+        <v>283.7895110286821</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.3678496069784</v>
+        <v>297.3239256109861</v>
       </c>
       <c r="K26" s="5" t="n">
         <v>15000</v>
@@ -3103,13 +3103,13 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,19 +3118,19 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>580683.2761851876</v>
+        <v>625098.4901370576</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>1659582.98983447</v>
+        <v>1765249.734080374</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>2240266.266019658</v>
+        <v>2390348.224217432</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.2997292733931</v>
+        <v>285.2203776541342</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.6831077457723</v>
+        <v>298.627581644254</v>
       </c>
       <c r="K27" s="5" t="n">
         <v>15000</v>
@@ -3147,13 +3147,13 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B28" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,19 +3162,19 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>913226.3086598227</v>
+        <v>978958.529138097</v>
       </c>
       <c r="G28" s="5" t="n">
-        <v>2212777.319779294</v>
+        <v>2353666.312107165</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3126003.628439116</v>
+        <v>3332624.841245262</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.7570464385982</v>
+        <v>286.6512442795864</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.1385712928199</v>
+        <v>300.0568463716391</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>15000</v>
@@ -3191,13 +3191,13 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B29" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,19 +3206,19 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>195114.7691997613</v>
+        <v>189853.3855925657</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>533272.0830620249</v>
+        <v>576156.9349471068</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>728386.8522617861</v>
+        <v>766010.3205396725</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3326124232242</v>
+        <v>282.3288323367829</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.2766859885863</v>
+        <v>305.2415718557589</v>
       </c>
       <c r="K29" s="5" t="n">
         <v>15000</v>
@@ -3235,13 +3235,13 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B30" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,19 +3250,19 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>379230.740948813</v>
+        <v>405388.2241313999</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1066544.16612405</v>
+        <v>1152313.869894214</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1445774.907072863</v>
+        <v>1557702.094025614</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.7374470686705</v>
+        <v>283.729886895788</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.4593143171617</v>
+        <v>306.4462975215906</v>
       </c>
       <c r="K30" s="5" t="n">
         <v>15000</v>
@@ -3279,13 +3279,13 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B31" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,19 +3294,19 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>660380.5885126137</v>
+        <v>715741.5992239801</v>
       </c>
       <c r="G31" s="5" t="n">
-        <v>1599816.249186075</v>
+        <v>1728470.80484132</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>2260196.837698689</v>
+        <v>2444212.4040653</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1422817141169</v>
+        <v>285.1309414547931</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.801904899918</v>
+        <v>307.7953095478576</v>
       </c>
       <c r="K31" s="5" t="n">
         <v>15000</v>
@@ -3323,13 +3323,13 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B32" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,19 +3338,19 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1038564.311891163</v>
+        <v>1120913.510870306</v>
       </c>
       <c r="G32" s="5" t="n">
-        <v>2133088.3322481</v>
+        <v>2304627.739788427</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>3171652.644139262</v>
+        <v>3425541.250658733</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.5471163595632</v>
+        <v>286.5319960137982</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.3044577368552</v>
+        <v>309.28860793456</v>
       </c>
       <c r="K32" s="5" t="n">
         <v>15000</v>
@@ -3367,13 +3367,13 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B33" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,19 +3382,19 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>211740.31149983</v>
+        <v>198601.6036916181</v>
       </c>
       <c r="G33" s="5" t="n">
-        <v>498234.0966269632</v>
+        <v>538298.9896371524</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>709974.4081267931</v>
+        <v>736900.5933287705</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.2403094904173</v>
+        <v>282.2367722683296</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.3241889833292</v>
+        <v>314.2749730199474</v>
       </c>
       <c r="K33" s="5" t="n">
         <v>15000</v>
@@ -3411,13 +3411,13 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B34" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,19 +3426,19 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>411544.6285698767</v>
+        <v>424068.0311225682</v>
       </c>
       <c r="G34" s="5" t="n">
-        <v>996468.1932539264</v>
+        <v>1076597.979274305</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1408012.821823803</v>
+        <v>1500666.010396873</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.5528412030568</v>
+        <v>283.5457667588814</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.4786376591148</v>
+        <v>315.4409586298777</v>
       </c>
       <c r="K34" s="5" t="n">
         <v>15000</v>
@@ -3455,13 +3455,13 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B35" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,19 +3470,19 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>716650.984923354</v>
+        <v>748722.1204458309</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>1494702.289880889</v>
+        <v>1614896.968911457</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>2211353.274804243</v>
+        <v>2363619.089357288</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.8653729156962</v>
+        <v>284.8547612494332</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.8072397875225</v>
+        <v>316.7583668937598</v>
       </c>
       <c r="K35" s="5" t="n">
         <v>15000</v>
@@ -3499,13 +3499,13 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B36" s="5" t="n">
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,19 +3514,19 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1127059.380560262</v>
+        <v>1172563.871661406</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1992936.386507853</v>
+        <v>2153195.95854861</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3119995.767068114</v>
+        <v>3325759.830210016</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>286.1779046283357</v>
+        <v>286.163755739985</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.3099953685526</v>
+        <v>318.2271978115938</v>
       </c>
       <c r="K36" s="5" t="n">
         <v>15000</v>
@@ -3543,13 +3543,13 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B37" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,19 +3558,19 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>142442.7854950236</v>
+        <v>125805.3361337902</v>
       </c>
       <c r="G37" s="5" t="n">
-        <v>572188.540018074</v>
+        <v>580449.5948491689</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>714631.3255130976</v>
+        <v>706254.9309829591</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.326839360591</v>
+        <v>286.2307983872995</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>287.0978896710832</v>
+        <v>286.9952208698521</v>
       </c>
       <c r="K37" s="5" t="n">
         <v>15000</v>
@@ -3587,13 +3587,13 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B38" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,19 +3602,19 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>276855.9412885117</v>
+        <v>268628.350462917</v>
       </c>
       <c r="G38" s="5" t="n">
-        <v>1144377.080036148</v>
+        <v>1160899.189698338</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>1421233.02132466</v>
+        <v>1429527.540161255</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>287.8370120545154</v>
+        <v>287.6449301079323</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.2548541345502</v>
+        <v>288.0883847069944</v>
       </c>
       <c r="K38" s="5" t="n">
         <v>15000</v>
@@ -3631,13 +3631,13 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B39" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,19 +3646,19 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>482108.3042579574</v>
+        <v>474282.3637001042</v>
       </c>
       <c r="G39" s="5" t="n">
-        <v>1716565.620054222</v>
+        <v>1741348.784547507</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>2198673.924312179</v>
+        <v>2215631.148247611</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.3471847484397</v>
+        <v>289.0590618285652</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>289.5278081941482</v>
+        <v>289.2765121512001</v>
       </c>
       <c r="K39" s="5" t="n">
         <v>15000</v>
@@ -3675,13 +3675,13 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B40" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,19 +3690,19 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>758199.8744033605</v>
+        <v>742767.3758453521</v>
       </c>
       <c r="G40" s="5" t="n">
-        <v>2288754.160072296</v>
+        <v>2321798.379396676</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>3046954.034475656</v>
+        <v>3064565.755242028</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>290.857357442364</v>
+        <v>290.473193549198</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>290.9167518498774</v>
+        <v>290.5596032024693</v>
       </c>
       <c r="K40" s="5" t="n">
         <v>15000</v>
@@ -3719,13 +3719,13 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B41" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,19 +3734,19 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>169714.6263520214</v>
+        <v>161760.8624124514</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>571700.8154167573</v>
+        <v>601370.9443662837</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>741415.4417687787</v>
+        <v>763131.8067787351</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.3255521129033</v>
+        <v>286.2817684357811</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.2201623742454</v>
+        <v>296.1593860133329</v>
       </c>
       <c r="K41" s="5" t="n">
         <v>15000</v>
@@ -3763,13 +3763,13 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B42" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,19 +3778,19 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>329862.284466197</v>
+        <v>345403.1043095352</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>1143401.630833515</v>
+        <v>1202741.888732567</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1473263.915299712</v>
+        <v>1548144.993042103</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>287.83443755914</v>
+        <v>287.7468702048956</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.4227522393462</v>
+        <v>297.3501103053115</v>
       </c>
       <c r="K42" s="5" t="n">
         <v>15000</v>
@@ -3807,13 +3807,13 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B43" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,19 +3822,19 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>574411.8976190928</v>
+        <v>609833.6250026388</v>
       </c>
       <c r="G43" s="5" t="n">
-        <v>1715102.446250272</v>
+        <v>1804112.833098851</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>2289514.343869365</v>
+        <v>2413946.45810149</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.3433230053766</v>
+        <v>289.2119719740101</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>298.7640332944887</v>
+        <v>298.6633759351337</v>
       </c>
       <c r="K43" s="5" t="n">
         <v>15000</v>
@@ -3851,13 +3851,13 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B44" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,19 +3866,19 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>903363.4658107089</v>
+        <v>955052.4244917629</v>
       </c>
       <c r="G44" s="5" t="n">
-        <v>2286803.261667029</v>
+        <v>2405483.777465135</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>3190166.727477738</v>
+        <v>3360536.201956898</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>290.8522084516133</v>
+        <v>290.6770737431245</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.244005539673</v>
+        <v>300.0991829027994</v>
       </c>
       <c r="K44" s="5" t="n">
         <v>15000</v>
@@ -3895,13 +3895,13 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B45" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,19 +3910,19 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>193594.9751648804</v>
+        <v>186726.6056387285</v>
       </c>
       <c r="G45" s="5" t="n">
-        <v>556097.3512631768</v>
+        <v>596693.9916531284</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>749692.3264280572</v>
+        <v>783420.597291857</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.2843700132153</v>
+        <v>286.2703741179174</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.3118084821012</v>
+        <v>305.2680652562905</v>
       </c>
       <c r="K45" s="5" t="n">
         <v>15000</v>
@@ -3939,13 +3939,13 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B46" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,19 +3954,19 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>376276.8250545867</v>
+        <v>398711.704938553</v>
       </c>
       <c r="G46" s="5" t="n">
-        <v>1112194.702526354</v>
+        <v>1193387.983306257</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1488471.52758094</v>
+        <v>1592099.68824481</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.7520733597639</v>
+        <v>287.7240815691682</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.5297005364592</v>
+        <v>306.4986407010786</v>
       </c>
       <c r="K46" s="5" t="n">
         <v>15000</v>
@@ -3983,13 +3983,13 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B47" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,19 +3998,19 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>655236.7314725296</v>
+        <v>703953.7320885278</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1668292.05378953</v>
+        <v>1790081.974959385</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>2323528.78526206</v>
+        <v>2494035.707047913</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.2197767063126</v>
+        <v>289.1777890204189</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>307.9063088620276</v>
+        <v>307.8711261899775</v>
       </c>
       <c r="K47" s="5" t="n">
         <v>15000</v>
@@ -4027,13 +4027,13 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B48" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,19 +4042,19 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1030474.694418708</v>
+        <v>1102452.687088653</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2224389.405052707</v>
+        <v>2386775.966612514</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3254864.099471415</v>
+        <v>3489228.653701167</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.6874800528612</v>
+        <v>290.6314964716697</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.4416334588063</v>
+        <v>309.3855217229874</v>
       </c>
       <c r="K48" s="5" t="n">
         <v>15000</v>
@@ -4071,13 +4071,13 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B49" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,19 +4086,19 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>211601.6382571493</v>
+        <v>197444.0128055611</v>
       </c>
       <c r="G49" s="5" t="n">
-        <v>525378.1475573331</v>
+        <v>566418.7367097036</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>736979.7858144825</v>
+        <v>763862.7495152646</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.2032930615269</v>
+        <v>286.1966154337084</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.3688517438577</v>
+        <v>314.3161342003617</v>
       </c>
       <c r="K49" s="5" t="n">
         <v>15000</v>
@@ -4115,13 +4115,13 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B50" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,19 +4130,19 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>411275.0992216514</v>
+        <v>421596.2621198473</v>
       </c>
       <c r="G50" s="5" t="n">
-        <v>1050756.295114666</v>
+        <v>1132837.473419407</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>1462031.394336318</v>
+        <v>1554433.735539254</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.5899194563872</v>
+        <v>287.5765642007501</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.5679761085199</v>
+        <v>315.5230419402682</v>
       </c>
       <c r="K50" s="5" t="n">
         <v>15000</v>
@@ -4159,13 +4159,13 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B51" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,19 +4174,19 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>716181.6349198255</v>
+        <v>744358.0373432433</v>
       </c>
       <c r="G51" s="5" t="n">
-        <v>1576134.442671999</v>
+        <v>1699256.210129111</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>2292316.077591825</v>
+        <v>2443614.247472354</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>288.9765458512476</v>
+        <v>288.9565129677918</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>316.9411398689965</v>
+        <v>316.880489735593</v>
       </c>
       <c r="K51" s="5" t="n">
         <v>15000</v>
@@ -4203,13 +4203,13 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B52" s="5" t="n">
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,19 +4218,19 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>1126321.245351671</v>
+        <v>1165729.33847575</v>
       </c>
       <c r="G52" s="5" t="n">
-        <v>2101512.590229332</v>
+        <v>2265674.946838814</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>3227833.835581004</v>
+        <v>3431404.285314565</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.3631722461079</v>
+        <v>290.3364617348335</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.4883430252877</v>
+        <v>318.3884775863363</v>
       </c>
       <c r="K52" s="5" t="n">
         <v>15000</v>
@@ -4247,13 +4247,13 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B53" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,19 +4262,19 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>144366.246290523</v>
+        <v>126367.5529984631</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>566319.4328200493</v>
+        <v>569780.077827893</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>710685.6791105723</v>
+        <v>696147.6308263561</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.2027140946561</v>
+        <v>290.0959930846666</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>287.0914292101189</v>
+        <v>286.9799445620228</v>
       </c>
       <c r="K53" s="5" t="n">
         <v>15000</v>
@@ -4291,13 +4291,13 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B54" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,19 +4306,19 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>280594.4356406048</v>
+        <v>269828.8352245403</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>1132638.865640099</v>
+        <v>1139560.155655786</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1413233.301280703</v>
+        <v>1409388.990880326</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>291.6998726337566</v>
+        <v>291.4864306137778</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.2417556777202</v>
+        <v>288.0579470358769</v>
       </c>
       <c r="K54" s="5" t="n">
         <v>15000</v>
@@ -4335,13 +4335,13 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B55" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,19 +4350,19 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>488618.4017627363</v>
+        <v>476401.9045056352</v>
       </c>
       <c r="G55" s="5" t="n">
-        <v>1698958.298460148</v>
+        <v>1709340.233483679</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>2187576.700222884</v>
+        <v>2185742.137989314</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>293.1970311728572</v>
+        <v>292.8768681428888</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>289.5096379944578</v>
+        <v>289.2313375037328</v>
       </c>
       <c r="K55" s="5" t="n">
         <v>15000</v>
@@ -4379,13 +4379,13 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B56" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,19 +4394,19 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>768438.1446569174</v>
+        <v>746086.7608417481</v>
       </c>
       <c r="G56" s="5" t="n">
-        <v>2265277.731280197</v>
+        <v>2279120.311311572</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>3033715.875937115</v>
+        <v>3025207.07215332</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>294.6941897119577</v>
+        <v>294.267305672</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>290.8950761603317</v>
+        <v>290.5001159655906</v>
       </c>
       <c r="K56" s="5" t="n">
         <v>15000</v>
@@ -4423,13 +4423,13 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B57" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,19 +4438,19 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>170113.1622037773</v>
+        <v>161688.5679634052</v>
       </c>
       <c r="G57" s="5" t="n">
-        <v>570150.4909479506</v>
+        <v>598284.1177115372</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>740263.653151728</v>
+        <v>759972.6856749423</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.2128421267482</v>
+        <v>290.1655516535387</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.2182697292953</v>
+        <v>296.1545941928828</v>
       </c>
       <c r="K57" s="5" t="n">
         <v>15000</v>
@@ -4467,13 +4467,13 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B58" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,19 +4482,19 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>330636.8903403496</v>
+        <v>345248.7361468503</v>
       </c>
       <c r="G58" s="5" t="n">
-        <v>1140300.981895901</v>
+        <v>1196568.235423074</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>1470937.872236251</v>
+        <v>1541816.971569925</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.7201286979408</v>
+        <v>291.6255477515218</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.4189300330902</v>
+        <v>297.3405118310197</v>
       </c>
       <c r="K58" s="5" t="n">
         <v>15000</v>
@@ -4511,13 +4511,13 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B59" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,19 +4526,19 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>575760.7721374362</v>
+        <v>609561.0770867096</v>
       </c>
       <c r="G59" s="5" t="n">
-        <v>1710451.472843852</v>
+        <v>1794852.353134612</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>2286212.244981288</v>
+        <v>2404413.430221321</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.2274152691335</v>
+        <v>293.0855438495049</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>298.7586072113581</v>
+        <v>298.6489160406101</v>
       </c>
       <c r="K59" s="5" t="n">
         <v>15000</v>
@@ -4555,13 +4555,13 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B60" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,19 +4570,19 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>905484.8075950366</v>
+        <v>954625.5907829831</v>
       </c>
       <c r="G60" s="5" t="n">
-        <v>2280601.963791803</v>
+        <v>2393136.470846149</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>3186086.771386839</v>
+        <v>3347762.061629132</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>294.7347018403261</v>
+        <v>294.545539947488</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.237301264099</v>
+        <v>300.0798068216538</v>
       </c>
       <c r="K60" s="5" t="n">
         <v>15000</v>
@@ -4599,13 +4599,13 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B61" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,19 +4614,19 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>192902.3032597763</v>
+        <v>186623.7503945571</v>
       </c>
       <c r="G61" s="5" t="n">
-        <v>558865.8095235883</v>
+        <v>601189.8553649116</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>751768.1127833646</v>
+        <v>787813.6057594686</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.1830092158919</v>
+        <v>290.1726425414799</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.3152304567652</v>
+        <v>305.2747501432988</v>
       </c>
       <c r="K61" s="5" t="n">
         <v>15000</v>
@@ -4643,13 +4643,13 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B62" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,19 +4658,19 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>374930.5277912663</v>
+        <v>398492.0812291989</v>
       </c>
       <c r="G62" s="5" t="n">
-        <v>1117731.619047177</v>
+        <v>1202379.710729823</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>1492662.146838443</v>
+        <v>1600871.791959022</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.6604628762282</v>
+        <v>291.6397295274042</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.5366088547884</v>
+        <v>306.5119893032009</v>
       </c>
       <c r="K62" s="5" t="n">
         <v>15000</v>
@@ -4687,13 +4687,13 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B63" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,19 +4702,19 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>652892.3313934639</v>
+        <v>703565.9708867875</v>
       </c>
       <c r="G63" s="5" t="n">
-        <v>1676597.428570765</v>
+        <v>1803569.566094735</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>2329489.759964229</v>
+        <v>2507135.536981522</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.1379165365645</v>
+        <v>293.1068165133285</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>307.9161356461529</v>
+        <v>307.8910603384272</v>
       </c>
       <c r="K63" s="5" t="n">
         <v>15000</v>
@@ -4731,13 +4731,13 @@
     </row>
     <row r="64">
       <c r="A64" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B64" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,19 +4746,19 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>1026787.714066369</v>
+        <v>1101845.419367323</v>
       </c>
       <c r="G64" s="5" t="n">
-        <v>2235463.238094353</v>
+        <v>2404759.421459646</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>3262250.952160722</v>
+        <v>3506604.84082697</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.6153701969009</v>
+        <v>294.5739034992528</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.4538108308587</v>
+        <v>309.4119632489775</v>
       </c>
       <c r="K64" s="5" t="n">
         <v>15000</v>
@@ -4775,13 +4775,13 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B65" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,19 +4790,19 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>210497.6789359939</v>
+        <v>198015.8779161191</v>
       </c>
       <c r="G65" s="5" t="n">
-        <v>532465.3885469628</v>
+        <v>578497.2907880164</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>742963.0674829567</v>
+        <v>776513.1687041355</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.1132153620872</v>
+        <v>290.1172657484902</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.3787471757759</v>
+        <v>314.3354466834936</v>
       </c>
       <c r="K65" s="5" t="n">
         <v>15000</v>
@@ -4819,13 +4819,13 @@
     </row>
     <row r="66">
       <c r="A66" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B66" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,19 +4834,19 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>409129.411772894</v>
+        <v>422817.3484907237</v>
       </c>
       <c r="G66" s="5" t="n">
-        <v>1064930.777093926</v>
+        <v>1156994.581576033</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>1474060.188866819</v>
+        <v>1579811.930066756</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.5208751686188</v>
+        <v>291.528975941425</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.5878698932236</v>
+        <v>315.5617850005899</v>
       </c>
       <c r="K66" s="5" t="n">
         <v>15000</v>
@@ -4863,13 +4863,13 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B67" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,19 +4878,19 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>712445.2016954795</v>
+        <v>746513.9517478966</v>
       </c>
       <c r="G67" s="5" t="n">
-        <v>1597396.165640888</v>
+        <v>1735491.872364049</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>2309841.367336368</v>
+        <v>2482005.824111946</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>292.9285349751505</v>
+        <v>292.9406861343596</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>316.9701240153435</v>
+        <v>316.939099388379</v>
       </c>
       <c r="K67" s="5" t="n">
         <v>15000</v>
@@ -4907,13 +4907,13 @@
     </row>
     <row r="68">
       <c r="A68" s="5" t="n">
-        <v>0.09041229226999208</v>
+        <v>0.09794664995915807</v>
       </c>
       <c r="B68" s="5" t="n">
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.1458084980776032</v>
+        <v>0.1579592062507368</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,19 +4922,19 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>1120445.04870375</v>
+        <v>1169105.687687638</v>
       </c>
       <c r="G68" s="5" t="n">
-        <v>2129861.554187851</v>
+        <v>2313989.163152066</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>3250306.602891601</v>
+        <v>3483094.850839704</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.3361947816821</v>
+        <v>294.3523963272943</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.5255095421353</v>
+        <v>318.467389846861</v>
       </c>
       <c r="K68" s="5" t="n">
         <v>15000</v>

--- a/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-Q.RS0001.a205.xlsx
+++ b/assets/examples/xlsx/RS0001/ASHRAE90-1-2019-bd-Curve-Set-Q.RS0001.a205.xlsx
@@ -12,6 +12,8 @@
     <sheet name="liquid_components0" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map_cooling" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="performance_map_standby" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_evaporator_liqu" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_condenser_liqui" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -349,22 +351,37 @@
     </comment>
     <comment ref="B29" authorId="0" shapeId="0">
       <text>
-        <t>Maximum input power at which the chiller operates reliably and continuously</t>
-      </text>
-    </comment>
-    <comment ref="B30" authorId="0" shapeId="0">
-      <text>
         <t>Cycling degradation coefficient (C~D~) as described in AHRI 550/590 or AHRI 551/591</t>
       </text>
     </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
     <comment ref="A31" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
     <comment ref="A32" authorId="0" shapeId="0">
       <text>
-        <t>Data group describing standby performance</t>
+        <t>Data group describing the liquid pressure differential through the evaporator</t>
+      </text>
+    </comment>
+    <comment ref="A33" authorId="0" shapeId="0">
+      <text>
+        <t>Data group describing the liquid pressure differential through the condenser</t>
+      </text>
+    </comment>
+    <comment ref="A34" authorId="0" shapeId="0">
+      <text>
+        <t>Specifies the range the performance data can be scaled to represent different capacity equipment</t>
+      </text>
+    </comment>
+    <comment ref="B35" authorId="0" shapeId="0">
+      <text>
+        <t>Minimum scaling factor</t>
       </text>
     </comment>
   </commentList>
@@ -469,32 +486,17 @@
     </comment>
     <comment ref="I3" authorId="0" shapeId="0">
       <text>
-        <t>Entering evaporator liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
       </text>
     </comment>
     <comment ref="J3" authorId="0" shapeId="0">
       <text>
-        <t>Leaving condenser liquid temperature</t>
+        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
       </text>
     </comment>
     <comment ref="K3" authorId="0" shapeId="0">
       <text>
-        <t>Pressure difference across the evaporator</t>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
-      <text>
-        <t>Pressure difference across the condenser</t>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller oil cooler.</t>
-      </text>
-    </comment>
-    <comment ref="N3" authorId="0" shapeId="0">
-      <text>
-        <t>Heat transferred to another liquid crossing the control volume boundary from the chiller auxiliaries (motor, motor controller, inverter drive, starter, etc).</t>
+        <t>The operation state at the operating conditions</t>
       </text>
     </comment>
   </commentList>
@@ -525,6 +527,76 @@
     <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <t>Total power consumed in standby operation</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the evaporator liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Chilled liquid (evaporator) flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Leaving evaporator liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the evaporator</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="C2" authorId="0" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for the condenser liquid pressure differential</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <t>Condenser liquid flow</t>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <t>Entering condenser liquid temperature</t>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <t>Pressure difference across the condenser</t>
       </text>
     </comment>
   </commentList>
@@ -820,7 +892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ32"/>
+  <dimension ref="A1:AZ35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1029,7 +1101,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>1.0.0</t>
+          <t>2.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -1048,7 +1120,7 @@
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'Q': 650.0 ton, 2.06 COP liquid-cooled, positive displacement compressor chiller</t>
+          <t>ASHRAE 90.1-2019 Addendum 'bd' curve set 'Q': 600.0+ ton, 6.01 COP, 9.25 IPLV liquid-cooled, positive displacement compressor chiller</t>
         </is>
       </c>
       <c r="D7" s="4" t="n"/>
@@ -1067,7 +1139,7 @@
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>64e58cf4-ab9c-4592-9ef6-f8da9794b399</t>
+          <t>138dd29b-1fe6-431a-b926-b856bc2281fa</t>
         </is>
       </c>
       <c r="D8" s="4" t="n"/>
@@ -1086,7 +1158,7 @@
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>2022-12-20T09:13Z</t>
+          <t>2024-02-22T13:52Z</t>
         </is>
       </c>
       <c r="D9" s="4" t="n"/>
@@ -1104,7 +1176,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4" t="n"/>
       <c r="E10" s="6" t="inlineStr">
@@ -1409,34 +1481,36 @@
       <c r="A29" s="4" t="n"/>
       <c r="B29" s="4" t="inlineStr">
         <is>
-          <t>maximum_power</t>
+          <t>cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1176816.64688336</v>
+        <v>0</v>
       </c>
       <c r="D29" s="4" t="inlineStr">
         <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E29" s="6" t="n"/>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="n"/>
-      <c r="B30" s="4" t="inlineStr">
-        <is>
-          <t>cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="C30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="n"/>
+      <c r="C30" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="n"/>
       <c r="E30" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -1446,13 +1520,13 @@
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_cooling</t>
+          <t>performance.performance_map_standby</t>
         </is>
       </c>
       <c r="B31" s="4" t="n"/>
       <c r="C31" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="D31" s="4" t="n"/>
@@ -1465,13 +1539,13 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.performance_map_standby</t>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
       <c r="C32" s="5" t="inlineStr">
         <is>
-          <t>$performance_map_standby</t>
+          <t>$performance_map_evaporator_liqu</t>
         </is>
       </c>
       <c r="D32" s="4" t="n"/>
@@ -1481,32 +1555,81 @@
         </is>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="n"/>
+      <c r="C33" s="5" t="inlineStr">
+        <is>
+          <t>$performance_map_condenser_liqui</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="n"/>
+      <c r="E33" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>performance.scaling</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="n"/>
+      <c r="C34" s="5" t="n"/>
+      <c r="D34" s="4" t="n"/>
+      <c r="E34" s="6" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    minimum</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
+    </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation sqref="C5" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C5" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
-    <dataValidation sqref="C17" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C17" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C18" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C18" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C22" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C25" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C25" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"BY_VOLUME,BY_MASS"</formula1>
     </dataValidation>
-    <dataValidation sqref="C28" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C28" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C21" r:id="rId1"/>
     <hyperlink ref="C24" r:id="rId2"/>
-    <hyperlink ref="C31" r:id="rId3"/>
-    <hyperlink ref="C32" r:id="rId4"/>
+    <hyperlink ref="C30" r:id="rId3"/>
+    <hyperlink ref="C31" r:id="rId4"/>
+    <hyperlink ref="C32" r:id="rId5"/>
+    <hyperlink ref="C33" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -1667,7 +1790,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1830,7 +1953,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="A4" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="A4" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"WATER,PROPYLENE_GLYCOL,ETHYLENE_GLYCOL,SODIUM_CHLORIDE,CALCIUM_CHLORIDE,ETHANOL,METHANOL"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1985,9 +2108,6 @@
       <c r="I2" s="4" t="n"/>
       <c r="J2" s="4" t="n"/>
       <c r="K2" s="4" t="n"/>
-      <c r="L2" s="4" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="inlineStr">
@@ -2032,32 +2152,17 @@
       </c>
       <c r="I3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_entering_temperature</t>
+          <t>oil_cooler_heat</t>
         </is>
       </c>
       <c r="J3" s="9" t="inlineStr">
         <is>
-          <t>condenser_liquid_leaving_temperature</t>
+          <t>auxiliary_heat</t>
         </is>
       </c>
       <c r="K3" s="9" t="inlineStr">
         <is>
-          <t>evaporator_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="L3" s="9" t="inlineStr">
-        <is>
-          <t>condenser_liquid_differential_pressure</t>
-        </is>
-      </c>
-      <c r="M3" s="9" t="inlineStr">
-        <is>
-          <t>oil_cooler_heat</t>
-        </is>
-      </c>
-      <c r="N3" s="9" t="inlineStr">
-        <is>
-          <t>auxiliary_heat</t>
+          <t>operation_state</t>
         </is>
       </c>
     </row>
@@ -2104,32 +2209,17 @@
       </c>
       <c r="I4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="J4" s="4" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>W</t>
         </is>
       </c>
       <c r="K4" s="4" t="inlineStr">
         <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="L4" s="4" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="M4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="N4" s="4" t="inlineStr">
-        <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2231,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2150,31 +2240,24 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>137783.8559604785</v>
+        <v>47153.07348241846</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>553665.0499090044</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>691448.9058694828</v>
+        <v>600818.1233914228</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>278.3823175346621</v>
+        <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>286.9728428466552</v>
-      </c>
-      <c r="K5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L5" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -2185,7 +2268,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2194,31 +2277,24 @@
         <v>2</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>294205.7235769524</v>
+        <v>100684.5396078285</v>
       </c>
       <c r="G6" s="5" t="n">
         <v>1107330.099818009</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>1401535.823394961</v>
+        <v>1208014.639425837</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>279.7257461804352</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>288.0460776541347</v>
-      </c>
-      <c r="K6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L6" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -2229,7 +2305,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2238,31 +2314,24 @@
         <v>3</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>519441.0260559556</v>
+        <v>177765.6801710129</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>1660995.149727013</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>2180436.175782969</v>
+        <v>1838760.829898026</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>281.0691748262084</v>
+        <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>289.2233180019134</v>
-      </c>
-      <c r="K7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L7" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -2273,7 +2342,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2282,31 +2351,24 @@
         <v>4</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>813489.7633974884</v>
+        <v>278396.4951719717</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>2214660.199636017</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>3028149.963033506</v>
+        <v>2493056.694807989</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>282.4126034719816</v>
+        <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>290.5045638899915</v>
-      </c>
-      <c r="K8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L8" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -2317,7 +2379,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2326,31 +2388,24 @@
         <v>1</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>172672.8235706559</v>
+        <v>59092.94874560094</v>
       </c>
       <c r="G9" s="5" t="n">
         <v>559421.0186930601</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>732093.842263716</v>
+        <v>618513.9674386611</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>278.3962839812527</v>
+        <v>0</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>296.1123069846385</v>
-      </c>
-      <c r="K9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L9" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M9" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2361,7 +2416,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2370,31 +2425,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>368703.0867771039</v>
+        <v>126179.3961477032</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>1118842.03738612</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1487545.124163224</v>
+        <v>1245021.433533824</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>279.7536790736166</v>
+        <v>0</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>297.258191166592</v>
-      </c>
-      <c r="K10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L10" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M10" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2405,7 +2453,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2414,31 +2462,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>650971.3930001198</v>
+        <v>222778.6536754459</v>
       </c>
       <c r="G11" s="5" t="n">
         <v>1678263.05607918</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2329234.4490793</v>
+        <v>1901041.709754626</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>281.1110741659805</v>
+        <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>298.5348830018555</v>
-      </c>
-      <c r="K11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L11" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M11" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2449,7 +2490,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>295.0018518518519</v>
@@ -2458,31 +2499,24 @@
         <v>4</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1019477.742239704</v>
+        <v>348890.7213288292</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>2237684.074772241</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3257161.817011944</v>
+        <v>2586574.79610107</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>282.4684692583443</v>
+        <v>0</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>299.9423824904291</v>
-      </c>
-      <c r="K12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L12" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M12" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2493,7 +2527,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>304.075925925926</v>
@@ -2502,31 +2536,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>194339.2471435776</v>
+        <v>66507.73951127836</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>539578.6852468461</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>733917.9323904237</v>
+        <v>606086.4247581244</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>278.3481379782587</v>
+        <v>0</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>305.1927365324979</v>
-      </c>
-      <c r="K13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L13" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M13" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2537,7 +2564,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>304.075925925926</v>
@@ -2546,31 +2573,24 @@
         <v>2</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>414966.7493822831</v>
+        <v>142011.9758587367</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>1079157.370493692</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1494124.119875975</v>
+        <v>1221169.346352429</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>279.6573870676285</v>
+        <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>306.3495502522557</v>
-      </c>
-      <c r="K14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L14" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M14" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2581,7 +2601,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>304.075925925926</v>
@@ -2590,31 +2610,24 @@
         <v>3</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>732653.1634312622</v>
+        <v>250732.193634572</v>
       </c>
       <c r="G15" s="5" t="n">
         <v>1618736.055740538</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>2351389.2191718</v>
+        <v>1869468.24937511</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>280.9666361569983</v>
+        <v>0</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>307.6540595349478</v>
-      </c>
-      <c r="K15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L15" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M15" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2625,7 +2638,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>304.075925925926</v>
@@ -2634,31 +2647,24 @@
         <v>4</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1147398.489290516</v>
+        <v>392668.3928387843</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>2158314.740987384</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>3305713.230277901</v>
+        <v>2550983.133826169</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>282.2758852463681</v>
+        <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>309.1062643805744</v>
-      </c>
-      <c r="K16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L16" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M16" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2669,7 +2675,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>313.15</v>
@@ -2678,31 +2684,24 @@
         <v>1</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>199321.912409661</v>
+        <v>68212.93189243306</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>494138.0495703622</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>693459.9619800232</v>
+        <v>562350.9814627953</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>278.2378795256799</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>314.2086553392734</v>
-      </c>
-      <c r="K17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L17" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M17" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2713,7 +2712,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>313.15</v>
@@ -2722,31 +2721,24 @@
         <v>2</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>425606.0846638439</v>
+        <v>145653.0218640062</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>988276.0991407244</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1413882.183804568</v>
+        <v>1133929.12100473</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>279.4368701624709</v>
+        <v>0</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>315.3084720172084</v>
-      </c>
-      <c r="K18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L18" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M18" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K18" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2757,7 +2749,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>313.15</v>
@@ -2766,31 +2758,24 @@
         <v>3</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>751437.6628217433</v>
+        <v>257160.7180354558</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>1482414.148711087</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>2233851.81153283</v>
+        <v>1739574.866746543</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>280.6358607992619</v>
+        <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>316.560260544347</v>
-      </c>
-      <c r="K19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L19" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M19" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2801,7 +2786,7 @@
         <v>277.0388888888889</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>313.15</v>
@@ -2810,31 +2795,24 @@
         <v>4</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1176816.64688336</v>
+        <v>402736.020406782</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>1976552.198281449</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>3153368.845164808</v>
+        <v>2379288.218688231</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>281.8348514360529</v>
+        <v>0</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>317.9640209206892</v>
-      </c>
-      <c r="K20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L20" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M20" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2845,7 +2823,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2854,31 +2832,24 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>129831.1214572004</v>
+        <v>44431.44929934438</v>
       </c>
       <c r="G21" s="5" t="n">
         <v>575077.918876206</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>704909.0403334064</v>
+        <v>619509.3681755504</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>282.3262084676707</v>
+        <v>0</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>286.9931866728313</v>
-      </c>
-      <c r="K21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L21" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M21" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2889,7 +2860,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2898,31 +2869,24 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>277224.4887824825</v>
+        <v>94873.13734662661</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>1150155.837752412</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>1427380.326534895</v>
+        <v>1245028.975099039</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>283.7246391575637</v>
+        <v>0</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>288.0851393797731</v>
-      </c>
-      <c r="K22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L22" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M22" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2933,7 +2897,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2942,31 +2906,24 @@
         <v>3</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>489459.4542561487</v>
+        <v>167505.2382031222</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>1725233.756628618</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2214693.210884767</v>
+        <v>1892738.99483174</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>285.1230698474566</v>
+        <v>0</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>289.2750945402004</v>
-      </c>
-      <c r="K23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L23" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M23" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2977,7 +2934,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>285.9277777777778</v>
@@ -2986,31 +2943,24 @@
         <v>4</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>766536.0178781992</v>
+        <v>262327.7518688312</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>2300311.675504824</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3066847.693383023</v>
+        <v>2562639.427373655</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>286.5215005373495</v>
+        <v>0</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>290.5630521541131</v>
-      </c>
-      <c r="K24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L24" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M24" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -3021,7 +2971,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3030,31 +2980,24 @@
         <v>1</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>165809.9303016526</v>
+        <v>56744.29542653481</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>588416.5780267912</v>
       </c>
       <c r="H25" s="5" t="n">
-        <v>754226.5083284439</v>
+        <v>645160.8734533261</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>282.35864440323</v>
+        <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>296.1458782718356</v>
-      </c>
-      <c r="K25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L25" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M25" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -3065,7 +3008,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3074,31 +3017,24 @@
         <v>2</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>354048.9571915763</v>
+        <v>121164.3873547611</v>
       </c>
       <c r="G26" s="5" t="n">
         <v>1176833.156053582</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>1530882.113245159</v>
+        <v>1297997.543408344</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>283.7895110286821</v>
+        <v>0</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>297.3239256109861</v>
-      </c>
-      <c r="K26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L26" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M26" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="27">
@@ -3109,7 +3045,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3118,31 +3054,24 @@
         <v>3</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>625098.4901370576</v>
+        <v>213924.3007369175</v>
       </c>
       <c r="G27" s="5" t="n">
         <v>1765249.734080374</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>2390348.224217432</v>
+        <v>1979174.034817291</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>285.2203776541342</v>
+        <v>0</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>298.627581644254</v>
-      </c>
-      <c r="K27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L27" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M27" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K27" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -3153,7 +3082,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3162,31 +3091,24 @@
         <v>4</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>978958.529138097</v>
+        <v>335024.0355730039</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>2353666.312107165</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3332624.841245262</v>
+        <v>2688690.347680169</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>286.6512442795864</v>
+        <v>0</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>300.0568463716391</v>
-      </c>
-      <c r="K28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L28" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M28" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K28" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -3197,7 +3119,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>304.075925925926</v>
@@ -3206,31 +3128,24 @@
         <v>1</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>189853.3855925657</v>
+        <v>64972.56575763125</v>
       </c>
       <c r="G29" s="5" t="n">
         <v>576156.9349471068</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>766010.3205396725</v>
+        <v>641129.500704738</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>282.3288323367829</v>
+        <v>0</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>305.2415718557589</v>
-      </c>
-      <c r="K29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L29" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M29" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K29" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -3241,7 +3156,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>304.075925925926</v>
@@ -3250,31 +3165,24 @@
         <v>2</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>405388.2241313999</v>
+        <v>138733.9655152198</v>
       </c>
       <c r="G30" s="5" t="n">
         <v>1152313.869894214</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>1557702.094025614</v>
+        <v>1291047.835409433</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>283.729886895788</v>
+        <v>0</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>306.4462975215906</v>
-      </c>
-      <c r="K30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L30" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M30" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K30" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -3285,7 +3193,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>304.075925925926</v>
@@ -3294,31 +3202,24 @@
         <v>3</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>715741.5992239801</v>
+        <v>244944.6343867211</v>
       </c>
       <c r="G31" s="5" t="n">
         <v>1728470.80484132</v>
       </c>
       <c r="H31" s="5" t="n">
-        <v>2444212.4040653</v>
+        <v>1973415.439228041</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>285.1309414547931</v>
+        <v>0</v>
       </c>
       <c r="J31" s="5" t="n">
-        <v>307.7953095478576</v>
-      </c>
-      <c r="K31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L31" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M31" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K31" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="32">
@@ -3329,7 +3230,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>304.075925925926</v>
@@ -3338,31 +3239,24 @@
         <v>4</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1120913.510870306</v>
+        <v>383604.5723721352</v>
       </c>
       <c r="G32" s="5" t="n">
         <v>2304627.739788427</v>
       </c>
       <c r="H32" s="5" t="n">
-        <v>3425541.250658733</v>
+        <v>2688232.312160562</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>286.5319960137982</v>
+        <v>0</v>
       </c>
       <c r="J32" s="5" t="n">
-        <v>309.28860793456</v>
-      </c>
-      <c r="K32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L32" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M32" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K32" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="33">
@@ -3373,7 +3267,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>313.15</v>
@@ -3382,31 +3276,24 @@
         <v>1</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>198601.6036916181</v>
+        <v>67966.42427602806</v>
       </c>
       <c r="G33" s="5" t="n">
         <v>538298.9896371524</v>
       </c>
       <c r="H33" s="5" t="n">
-        <v>736900.5933287705</v>
+        <v>606265.4139131805</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>282.2367722683296</v>
+        <v>0</v>
       </c>
       <c r="J33" s="5" t="n">
-        <v>314.2749730199474</v>
-      </c>
-      <c r="K33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L33" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M33" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K33" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -3417,7 +3304,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>313.15</v>
@@ -3426,31 +3313,24 @@
         <v>2</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>424068.0311225682</v>
+        <v>145126.6615647817</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>1076597.979274305</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1500666.010396873</v>
+        <v>1221724.640839086</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>283.5457667588814</v>
+        <v>0</v>
       </c>
       <c r="J34" s="5" t="n">
-        <v>315.4409586298777</v>
-      </c>
-      <c r="K34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L34" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M34" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K34" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="35">
@@ -3461,7 +3341,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>313.15</v>
@@ -3470,31 +3350,24 @@
         <v>3</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>748722.1204458309</v>
+        <v>256231.3916764029</v>
       </c>
       <c r="G35" s="5" t="n">
         <v>1614896.968911457</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>2363619.089357288</v>
+        <v>1871128.36058786</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>284.8547612494332</v>
+        <v>0</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>316.7583668937598</v>
-      </c>
-      <c r="K35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L35" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M35" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K35" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -3505,7 +3378,7 @@
         <v>280.9277777777778</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>313.15</v>
@@ -3514,31 +3387,24 @@
         <v>4</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>1172563.871661406</v>
+        <v>401280.6146108918</v>
       </c>
       <c r="G36" s="5" t="n">
         <v>2153195.95854861</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3325759.830210016</v>
+        <v>2554476.573159501</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>286.163755739985</v>
+        <v>0</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>318.2271978115938</v>
-      </c>
-      <c r="K36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L36" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M36" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="37">
@@ -3549,7 +3415,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3558,31 +3424,24 @@
         <v>1</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>125805.3361337902</v>
+        <v>43053.72511057113</v>
       </c>
       <c r="G37" s="5" t="n">
         <v>580449.5948491689</v>
       </c>
       <c r="H37" s="5" t="n">
-        <v>706254.9309829591</v>
+        <v>623503.31995974</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>286.2307983872995</v>
+        <v>0</v>
       </c>
       <c r="J37" s="5" t="n">
-        <v>286.9952208698521</v>
-      </c>
-      <c r="K37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L37" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M37" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K37" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="38">
@@ -3593,7 +3452,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3602,31 +3461,24 @@
         <v>2</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>268628.350462917</v>
+        <v>91931.32432345378</v>
       </c>
       <c r="G38" s="5" t="n">
         <v>1160899.189698338</v>
       </c>
       <c r="H38" s="5" t="n">
-        <v>1429527.540161255</v>
+        <v>1252830.514021792</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>287.6449301079323</v>
+        <v>0</v>
       </c>
       <c r="J38" s="5" t="n">
-        <v>288.0883847069944</v>
-      </c>
-      <c r="K38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L38" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M38" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K38" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -3637,7 +3489,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3646,31 +3498,24 @@
         <v>3</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>474282.3637001042</v>
+        <v>162311.2591171851</v>
       </c>
       <c r="G39" s="5" t="n">
         <v>1741348.784547507</v>
       </c>
       <c r="H39" s="5" t="n">
-        <v>2215631.148247611</v>
+        <v>1903660.043664692</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>289.0590618285652</v>
+        <v>0</v>
       </c>
       <c r="J39" s="5" t="n">
-        <v>289.2765121512001</v>
-      </c>
-      <c r="K39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L39" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M39" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K39" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3526,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>285.9277777777778</v>
@@ -3690,31 +3535,24 @@
         <v>4</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>742767.3758453521</v>
+        <v>254193.5294917653</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>2321798.379396676</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>3064565.755242028</v>
+        <v>2575991.908888441</v>
       </c>
       <c r="I40" s="5" t="n">
-        <v>290.473193549198</v>
+        <v>0</v>
       </c>
       <c r="J40" s="5" t="n">
-        <v>290.5596032024693</v>
-      </c>
-      <c r="K40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L40" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M40" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -3725,7 +3563,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3734,31 +3572,24 @@
         <v>1</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>161760.8624124514</v>
+        <v>55358.60336280297</v>
       </c>
       <c r="G41" s="5" t="n">
         <v>601370.9443662837</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>763131.8067787351</v>
+        <v>656729.5477290867</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>286.2817684357811</v>
+        <v>0</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>296.1593860133329</v>
-      </c>
-      <c r="K41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L41" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K41" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -3769,7 +3600,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3778,31 +3609,24 @@
         <v>2</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>345403.1043095352</v>
+        <v>118205.560767835</v>
       </c>
       <c r="G42" s="5" t="n">
         <v>1202741.888732567</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>1548144.993042103</v>
+        <v>1320947.449500402</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>287.7468702048956</v>
+        <v>0</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>297.3501103053115</v>
-      </c>
-      <c r="K42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L42" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K42" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -3813,7 +3637,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3822,31 +3646,24 @@
         <v>3</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>609833.6250026388</v>
+        <v>208700.2830001159</v>
       </c>
       <c r="G43" s="5" t="n">
         <v>1804112.833098851</v>
       </c>
       <c r="H43" s="5" t="n">
-        <v>2413946.45810149</v>
+        <v>2012813.116098967</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>289.2119719740101</v>
+        <v>0</v>
       </c>
       <c r="J43" s="5" t="n">
-        <v>298.6633759351337</v>
-      </c>
-      <c r="K43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L43" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M43" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K43" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="44">
@@ -3857,7 +3674,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>295.0018518518519</v>
@@ -3866,31 +3683,24 @@
         <v>4</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>955052.4244917629</v>
+        <v>326842.7700596457</v>
       </c>
       <c r="G44" s="5" t="n">
         <v>2405483.777465135</v>
       </c>
       <c r="H44" s="5" t="n">
-        <v>3360536.201956898</v>
+        <v>2732326.547524781</v>
       </c>
       <c r="I44" s="5" t="n">
-        <v>290.6770737431245</v>
+        <v>0</v>
       </c>
       <c r="J44" s="5" t="n">
-        <v>300.0991829027994</v>
-      </c>
-      <c r="K44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L44" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M44" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="45">
@@ -3901,7 +3711,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>304.075925925926</v>
@@ -3910,31 +3720,24 @@
         <v>1</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>186726.6056387285</v>
+        <v>63902.50363824239</v>
       </c>
       <c r="G45" s="5" t="n">
         <v>596693.9916531284</v>
       </c>
       <c r="H45" s="5" t="n">
-        <v>783420.597291857</v>
+        <v>660596.4952913708</v>
       </c>
       <c r="I45" s="5" t="n">
-        <v>286.2703741179174</v>
+        <v>0</v>
       </c>
       <c r="J45" s="5" t="n">
-        <v>305.2680652562905</v>
-      </c>
-      <c r="K45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L45" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M45" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K45" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -3945,7 +3748,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>304.075925925926</v>
@@ -3954,31 +3757,24 @@
         <v>2</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>398711.704938553</v>
+        <v>136449.0940554067</v>
       </c>
       <c r="G46" s="5" t="n">
         <v>1193387.983306257</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>1592099.68824481</v>
+        <v>1329837.077361664</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>287.7240815691682</v>
+        <v>0</v>
       </c>
       <c r="J46" s="5" t="n">
-        <v>306.4986407010786</v>
-      </c>
-      <c r="K46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L46" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M46" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K46" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -3989,7 +3785,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>304.075925925926</v>
@@ -3998,31 +3794,24 @@
         <v>3</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>703953.7320885278</v>
+        <v>240910.5321229668</v>
       </c>
       <c r="G47" s="5" t="n">
         <v>1790081.974959385</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>2494035.707047913</v>
+        <v>2030992.507082352</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>289.1777890204189</v>
+        <v>0</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>307.8711261899775</v>
-      </c>
-      <c r="K47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L47" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M47" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K47" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -4033,7 +3822,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>304.075925925926</v>
@@ -4042,31 +3831,24 @@
         <v>4</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1102452.687088653</v>
+        <v>377286.8178409227</v>
       </c>
       <c r="G48" s="5" t="n">
         <v>2386775.966612514</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>3489228.653701167</v>
+        <v>2764062.784453436</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>290.6314964716697</v>
+        <v>0</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>309.3855217229874</v>
-      </c>
-      <c r="K48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L48" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M48" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K48" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="49">
@@ -4077,7 +3859,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>313.15</v>
@@ -4086,31 +3868,24 @@
         <v>1</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>197444.0128055611</v>
+        <v>67570.26779069584</v>
       </c>
       <c r="G49" s="5" t="n">
         <v>566418.7367097036</v>
       </c>
       <c r="H49" s="5" t="n">
-        <v>763862.7495152646</v>
+        <v>633989.0045003995</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>286.1966154337084</v>
+        <v>0</v>
       </c>
       <c r="J49" s="5" t="n">
-        <v>314.3161342003617</v>
-      </c>
-      <c r="K49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L49" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M49" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K49" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="50">
@@ -4121,7 +3896,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>313.15</v>
@@ -4130,31 +3905,24 @@
         <v>2</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>421596.2621198473</v>
+        <v>144280.7605366503</v>
       </c>
       <c r="G50" s="5" t="n">
         <v>1132837.473419407</v>
       </c>
       <c r="H50" s="5" t="n">
-        <v>1554433.735539254</v>
+        <v>1277118.233956058</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>287.5765642007501</v>
+        <v>0</v>
       </c>
       <c r="J50" s="5" t="n">
-        <v>315.5230419402682</v>
-      </c>
-      <c r="K50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L50" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M50" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K50" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="51">
@@ -4165,7 +3933,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>313.15</v>
@@ -4174,31 +3942,24 @@
         <v>3</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>744358.0373432433</v>
+        <v>254737.8935464135</v>
       </c>
       <c r="G51" s="5" t="n">
         <v>1699256.210129111</v>
       </c>
       <c r="H51" s="5" t="n">
-        <v>2443614.247472354</v>
+        <v>1953994.103675524</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>288.9565129677918</v>
+        <v>0</v>
       </c>
       <c r="J51" s="5" t="n">
-        <v>316.880489735593</v>
-      </c>
-      <c r="K51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L51" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M51" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K51" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -4209,7 +3970,7 @@
         <v>284.8166666666667</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>313.15</v>
@@ -4218,31 +3979,24 @@
         <v>4</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>1165729.33847575</v>
+        <v>398941.6668199858</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>2265674.946838814</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>3431404.285314565</v>
+        <v>2664616.6136588</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>290.3364617348335</v>
+        <v>0</v>
       </c>
       <c r="J52" s="5" t="n">
-        <v>318.3884775863363</v>
-      </c>
-      <c r="K52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L52" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M52" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K52" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -4253,7 +4007,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4262,31 +4016,24 @@
         <v>1</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>126367.5529984631</v>
+        <v>43246.12975005645</v>
       </c>
       <c r="G53" s="5" t="n">
         <v>569780.077827893</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>696147.6308263561</v>
+        <v>613026.2075779494</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>290.0959930846666</v>
+        <v>0</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>286.9799445620228</v>
-      </c>
-      <c r="K53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L53" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M53" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -4297,7 +4044,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4306,31 +4053,24 @@
         <v>2</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>269828.8352245403</v>
+        <v>92342.16016328965</v>
       </c>
       <c r="G54" s="5" t="n">
         <v>1139560.155655786</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>1409388.990880326</v>
+        <v>1231902.315819076</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>291.4864306137778</v>
+        <v>0</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>288.0579470358769</v>
-      </c>
-      <c r="K54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L54" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M54" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K54" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -4341,7 +4081,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4350,31 +4090,24 @@
         <v>3</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>476401.9045056352</v>
+        <v>163036.6188674657</v>
       </c>
       <c r="G55" s="5" t="n">
         <v>1709340.233483679</v>
       </c>
       <c r="H55" s="5" t="n">
-        <v>2185742.137989314</v>
+        <v>1872376.852351145</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>292.8768681428888</v>
+        <v>0</v>
       </c>
       <c r="J55" s="5" t="n">
-        <v>289.2313375037328</v>
-      </c>
-      <c r="K55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L55" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M55" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K55" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -4385,7 +4118,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>285.9277777777778</v>
@@ -4394,31 +4127,24 @@
         <v>4</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>746086.7608417481</v>
+        <v>255329.5058625848</v>
       </c>
       <c r="G56" s="5" t="n">
         <v>2279120.311311572</v>
       </c>
       <c r="H56" s="5" t="n">
-        <v>3025207.07215332</v>
+        <v>2534449.817174157</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>294.267305672</v>
+        <v>0</v>
       </c>
       <c r="J56" s="5" t="n">
-        <v>290.5001159655906</v>
-      </c>
-      <c r="K56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L56" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M56" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K56" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -4429,7 +4155,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4438,31 +4164,24 @@
         <v>1</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>161688.5679634052</v>
+        <v>55333.86239845352</v>
       </c>
       <c r="G57" s="5" t="n">
         <v>598284.1177115372</v>
       </c>
       <c r="H57" s="5" t="n">
-        <v>759972.6856749423</v>
+        <v>653617.9801099907</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>290.1655516535387</v>
+        <v>0</v>
       </c>
       <c r="J57" s="5" t="n">
-        <v>296.1545941928828</v>
-      </c>
-      <c r="K57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L57" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M57" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K57" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -4473,7 +4192,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4482,31 +4201,24 @@
         <v>2</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>345248.7361468503</v>
+        <v>118152.7321307811</v>
       </c>
       <c r="G58" s="5" t="n">
         <v>1196568.235423074</v>
       </c>
       <c r="H58" s="5" t="n">
-        <v>1541816.971569925</v>
+        <v>1314720.967553855</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>291.6255477515218</v>
+        <v>0</v>
       </c>
       <c r="J58" s="5" t="n">
-        <v>297.3405118310197</v>
-      </c>
-      <c r="K58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L58" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M58" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K58" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -4517,7 +4229,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4526,31 +4238,24 @@
         <v>3</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>609561.0770867096</v>
+        <v>208607.0103026891</v>
       </c>
       <c r="G59" s="5" t="n">
         <v>1794852.353134612</v>
       </c>
       <c r="H59" s="5" t="n">
-        <v>2404413.430221321</v>
+        <v>2003459.363437301</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>293.0855438495049</v>
+        <v>0</v>
       </c>
       <c r="J59" s="5" t="n">
-        <v>298.6489160406101</v>
-      </c>
-      <c r="K59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L59" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M59" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K59" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -4561,7 +4266,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D60" s="5" t="n">
         <v>295.0018518518519</v>
@@ -4570,31 +4275,24 @@
         <v>4</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>954625.5907829831</v>
+        <v>326696.6969141777</v>
       </c>
       <c r="G60" s="5" t="n">
         <v>2393136.470846149</v>
       </c>
       <c r="H60" s="5" t="n">
-        <v>3347762.061629132</v>
+        <v>2719833.167760327</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>294.545539947488</v>
+        <v>0</v>
       </c>
       <c r="J60" s="5" t="n">
-        <v>300.0798068216538</v>
-      </c>
-      <c r="K60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L60" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M60" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="61">
@@ -4605,7 +4303,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D61" s="5" t="n">
         <v>304.075925925926</v>
@@ -4614,31 +4312,24 @@
         <v>1</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>186623.7503945571</v>
+        <v>63867.30400725036</v>
       </c>
       <c r="G61" s="5" t="n">
         <v>601189.8553649116</v>
       </c>
       <c r="H61" s="5" t="n">
-        <v>787813.6057594686</v>
+        <v>665057.159372162</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>290.1726425414799</v>
+        <v>0</v>
       </c>
       <c r="J61" s="5" t="n">
-        <v>305.2747501432988</v>
-      </c>
-      <c r="K61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L61" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M61" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K61" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="62">
@@ -4649,7 +4340,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D62" s="5" t="n">
         <v>304.075925925926</v>
@@ -4658,31 +4349,24 @@
         <v>2</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>398492.0812291989</v>
+        <v>136373.933342031</v>
       </c>
       <c r="G62" s="5" t="n">
         <v>1202379.710729823</v>
       </c>
       <c r="H62" s="5" t="n">
-        <v>1600871.791959022</v>
+        <v>1338753.644071854</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>291.6397295274042</v>
+        <v>0</v>
       </c>
       <c r="J62" s="5" t="n">
-        <v>306.5119893032009</v>
-      </c>
-      <c r="K62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L62" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M62" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K62" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="63">
@@ -4693,7 +4377,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D63" s="5" t="n">
         <v>304.075925925926</v>
@@ -4702,31 +4386,24 @@
         <v>3</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>703565.9708867875</v>
+        <v>240777.8305643419</v>
       </c>
       <c r="G63" s="5" t="n">
         <v>1803569.566094735</v>
       </c>
       <c r="H63" s="5" t="n">
-        <v>2507135.536981522</v>
+        <v>2044347.396659077</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>293.1068165133285</v>
+        <v>0</v>
       </c>
       <c r="J63" s="5" t="n">
-        <v>307.8910603384272</v>
-      </c>
-      <c r="K63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L63" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M63" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K63" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="64">
@@ -4737,7 +4414,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D64" s="5" t="n">
         <v>304.075925925926</v>
@@ -4746,31 +4423,24 @@
         <v>4</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>1101845.419367323</v>
+        <v>377078.9956741834</v>
       </c>
       <c r="G64" s="5" t="n">
         <v>2404759.421459646</v>
       </c>
       <c r="H64" s="5" t="n">
-        <v>3506604.84082697</v>
+        <v>2781838.41713383</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>294.5739034992528</v>
+        <v>0</v>
       </c>
       <c r="J64" s="5" t="n">
-        <v>309.4119632489775</v>
-      </c>
-      <c r="K64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L64" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M64" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K64" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="65">
@@ -4781,7 +4451,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D65" s="5" t="n">
         <v>313.15</v>
@@ -4790,31 +4460,24 @@
         <v>1</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>198015.8779161191</v>
+        <v>67765.9743006654</v>
       </c>
       <c r="G65" s="5" t="n">
         <v>578497.2907880164</v>
       </c>
       <c r="H65" s="5" t="n">
-        <v>776513.1687041355</v>
+        <v>646263.2650886818</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>290.1172657484902</v>
+        <v>0</v>
       </c>
       <c r="J65" s="5" t="n">
-        <v>314.3354466834936</v>
-      </c>
-      <c r="K65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L65" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M65" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K65" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="66">
@@ -4825,7 +4488,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D66" s="5" t="n">
         <v>313.15</v>
@@ -4834,31 +4497,24 @@
         <v>2</v>
       </c>
       <c r="F66" s="5" t="n">
-        <v>422817.3484907237</v>
+        <v>144698.6467612225</v>
       </c>
       <c r="G66" s="5" t="n">
         <v>1156994.581576033</v>
       </c>
       <c r="H66" s="5" t="n">
-        <v>1579811.930066756</v>
+        <v>1301693.228337255</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>291.528975941425</v>
+        <v>0</v>
       </c>
       <c r="J66" s="5" t="n">
-        <v>315.5617850005899</v>
-      </c>
-      <c r="K66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L66" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K66" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -4869,7 +4525,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D67" s="5" t="n">
         <v>313.15</v>
@@ -4878,31 +4534,24 @@
         <v>3</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>746513.9517478966</v>
+        <v>255475.7012499052</v>
       </c>
       <c r="G67" s="5" t="n">
         <v>1735491.872364049</v>
       </c>
       <c r="H67" s="5" t="n">
-        <v>2482005.824111946</v>
+        <v>1990967.573613954</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>292.9406861343596</v>
+        <v>0</v>
       </c>
       <c r="J67" s="5" t="n">
-        <v>316.939099388379</v>
-      </c>
-      <c r="K67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L67" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M67" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K67" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
     <row r="68">
@@ -4913,7 +4562,7 @@
         <v>288.7055555555556</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>0.1579592062507368</v>
+        <v>0.1239750952877435</v>
       </c>
       <c r="D68" s="5" t="n">
         <v>313.15</v>
@@ -4922,31 +4571,24 @@
         <v>4</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>1169105.687687638</v>
+        <v>400097.1377667137</v>
       </c>
       <c r="G68" s="5" t="n">
         <v>2313989.163152066</v>
       </c>
       <c r="H68" s="5" t="n">
-        <v>3483094.850839704</v>
+        <v>2714086.300918779</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>294.3523963272943</v>
+        <v>0</v>
       </c>
       <c r="J68" s="5" t="n">
-        <v>318.467389846861</v>
-      </c>
-      <c r="K68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="L68" s="5" t="n">
-        <v>15000</v>
-      </c>
-      <c r="M68" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" s="5" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="K68" s="5" t="inlineStr">
+        <is>
+          <t>NORMAL</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -5129,4 +4771,450 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_evaporator_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_leaving_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>evaporator_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.09794664995915807</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>277.0388888888889</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.09794664995915807</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>280.9277777777778</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.09794664995915807</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>284.8166666666667</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.09794664995915807</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>288.7055555555556</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="13" customWidth="1" style="1" min="1" max="1"/>
+    <col width="13" customWidth="1" style="1" min="2" max="2"/>
+    <col width="13" customWidth="1" style="1" min="3" max="3"/>
+    <col width="13" customWidth="1" style="1" min="4" max="4"/>
+    <col width="13" customWidth="1" style="1" min="5" max="5"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="7" max="7"/>
+    <col width="13" customWidth="1" style="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="1" min="9" max="9"/>
+    <col width="13" customWidth="1" style="1" min="10" max="10"/>
+    <col width="13" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13" customWidth="1" style="1" min="12" max="12"/>
+    <col width="13" customWidth="1" style="1" min="13" max="13"/>
+    <col width="13" customWidth="1" style="1" min="14" max="14"/>
+    <col width="13" customWidth="1" style="1" min="15" max="15"/>
+    <col width="13" customWidth="1" style="1" min="16" max="16"/>
+    <col width="13" customWidth="1" style="1" min="17" max="17"/>
+    <col width="13" customWidth="1" style="1" min="18" max="18"/>
+    <col width="13" customWidth="1" style="1" min="19" max="19"/>
+    <col width="13" customWidth="1" style="1" min="20" max="20"/>
+    <col width="13" customWidth="1" style="1" min="21" max="21"/>
+    <col width="13" customWidth="1" style="1" min="22" max="22"/>
+    <col width="13" customWidth="1" style="1" min="23" max="23"/>
+    <col width="13" customWidth="1" style="1" min="24" max="24"/>
+    <col width="13" customWidth="1" style="1" min="25" max="25"/>
+    <col width="13" customWidth="1" style="1" min="26" max="26"/>
+    <col width="13" customWidth="1" style="1" min="27" max="27"/>
+    <col width="13" customWidth="1" style="1" min="28" max="28"/>
+    <col width="13" customWidth="1" style="1" min="29" max="29"/>
+    <col width="13" customWidth="1" style="1" min="30" max="30"/>
+    <col width="13" customWidth="1" style="1" min="31" max="31"/>
+    <col width="13" customWidth="1" style="1" min="32" max="32"/>
+    <col width="13" customWidth="1" style="1" min="33" max="33"/>
+    <col width="13" customWidth="1" style="1" min="34" max="34"/>
+    <col width="13" customWidth="1" style="1" min="35" max="35"/>
+    <col width="13" customWidth="1" style="1" min="36" max="36"/>
+    <col width="13" customWidth="1" style="1" min="37" max="37"/>
+    <col width="13" customWidth="1" style="1" min="38" max="38"/>
+    <col width="13" customWidth="1" style="1" min="39" max="39"/>
+    <col width="13" customWidth="1" style="1" min="40" max="40"/>
+    <col width="13" customWidth="1" style="1" min="41" max="41"/>
+    <col width="13" customWidth="1" style="1" min="42" max="42"/>
+    <col width="13" customWidth="1" style="1" min="43" max="43"/>
+    <col width="13" customWidth="1" style="1" min="44" max="44"/>
+    <col width="13" customWidth="1" style="1" min="45" max="45"/>
+    <col width="13" customWidth="1" style="1" min="46" max="46"/>
+    <col width="13" customWidth="1" style="1" min="47" max="47"/>
+    <col width="13" customWidth="1" style="1" min="48" max="48"/>
+    <col width="13" customWidth="1" style="1" min="49" max="49"/>
+    <col width="13" customWidth="1" style="1" min="50" max="50"/>
+    <col width="13" customWidth="1" style="1" min="51" max="51"/>
+    <col width="13" customWidth="1" style="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>performance.performance_map_condenser_liquid_pressure_differential</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="2" t="n"/>
+      <c r="E1" s="2" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="2" t="n"/>
+      <c r="H1" s="2" t="n"/>
+      <c r="I1" s="2" t="n"/>
+      <c r="J1" s="2" t="n"/>
+      <c r="K1" s="2" t="n"/>
+      <c r="L1" s="2" t="n"/>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="2" t="n"/>
+      <c r="O1" s="2" t="n"/>
+      <c r="P1" s="2" t="n"/>
+      <c r="Q1" s="2" t="n"/>
+      <c r="R1" s="2" t="n"/>
+      <c r="S1" s="2" t="n"/>
+      <c r="T1" s="2" t="n"/>
+      <c r="U1" s="2" t="n"/>
+      <c r="V1" s="2" t="n"/>
+      <c r="W1" s="2" t="n"/>
+      <c r="X1" s="2" t="n"/>
+      <c r="Y1" s="2" t="n"/>
+      <c r="Z1" s="2" t="n"/>
+      <c r="AA1" s="2" t="n"/>
+      <c r="AB1" s="2" t="n"/>
+      <c r="AC1" s="2" t="n"/>
+      <c r="AD1" s="2" t="n"/>
+      <c r="AE1" s="2" t="n"/>
+      <c r="AF1" s="2" t="n"/>
+      <c r="AG1" s="2" t="n"/>
+      <c r="AH1" s="2" t="n"/>
+      <c r="AI1" s="2" t="n"/>
+      <c r="AJ1" s="2" t="n"/>
+      <c r="AK1" s="2" t="n"/>
+      <c r="AL1" s="2" t="n"/>
+      <c r="AM1" s="2" t="n"/>
+      <c r="AN1" s="2" t="n"/>
+      <c r="AO1" s="2" t="n"/>
+      <c r="AP1" s="2" t="n"/>
+      <c r="AQ1" s="2" t="n"/>
+      <c r="AR1" s="2" t="n"/>
+      <c r="AS1" s="2" t="n"/>
+      <c r="AT1" s="2" t="n"/>
+      <c r="AU1" s="2" t="n"/>
+      <c r="AV1" s="2" t="n"/>
+      <c r="AW1" s="2" t="n"/>
+      <c r="AX1" s="2" t="n"/>
+      <c r="AY1" s="2" t="n"/>
+      <c r="AZ1" s="2" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="n"/>
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_volumetric_flow_rate</t>
+        </is>
+      </c>
+      <c r="B3" s="8" t="inlineStr">
+        <is>
+          <t>condenser_liquid_entering_temperature</t>
+        </is>
+      </c>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>condenser_liquid_differential_pressure</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="n">
+        <v>0.1239750952877435</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>285.9277777777778</v>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="n">
+        <v>0.1239750952877435</v>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>295.0018518518519</v>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>0.1239750952877435</v>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>304.075925925926</v>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>0.1239750952877435</v>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>313.15</v>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
 </file>